--- a/ExcelReadCTests/DataTests/ConvertKmat_Test.xlsx
+++ b/ExcelReadCTests/DataTests/ConvertKmat_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>kmat</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>count_ceh_kmat</t>
+  </si>
+  <si>
+    <t>1100184</t>
+  </si>
+  <si>
+    <t>100184</t>
+  </si>
+  <si>
+    <t>00184</t>
+  </si>
+  <si>
+    <t>0184</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
 </sst>
 </file>
@@ -171,28 +189,63 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -214,15 +267,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -230,6 +274,58 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -300,114 +396,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,25 +411,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:H19"/>
   <tableColumns count="8">
-    <tableColumn id="11" name="group" dataDxfId="5"/>
-    <tableColumn id="8" name="count_group" dataDxfId="4">
+    <tableColumn id="11" name="group" dataDxfId="16"/>
+    <tableColumn id="8" name="count_group" dataDxfId="15">
       <calculatedColumnFormula>LEN(table1[[#This Row],[group]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ceh" dataDxfId="3" totalsRowDxfId="26"/>
-    <tableColumn id="1" name="count_ceh" dataDxfId="2" totalsRowDxfId="25">
+    <tableColumn id="9" name="ceh" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="1" name="count_ceh" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>LEN(table1[[#This Row],[ceh]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="kmat" dataDxfId="0" totalsRowDxfId="24"/>
-    <tableColumn id="2" name="count_kmat" dataDxfId="1" totalsRowDxfId="23">
+    <tableColumn id="10" name="kmat" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="count_kmat" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>LEN(table1[[#This Row],[kmat]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="count_ceh_kmat" dataDxfId="6" totalsRowDxfId="8">
+    <tableColumn id="12" name="count_ceh_kmat" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="count_all" dataDxfId="7" totalsRowDxfId="16">
+    <tableColumn id="3" name="count_all" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -741,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,19 +971,19 @@
         <v>5</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F8" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G8" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H8" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1014,19 +1002,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>6</v>
       </c>
-      <c r="F9" s="8">
-        <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>12</v>
-      </c>
       <c r="G9" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H9" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1045,19 +1033,19 @@
         <v>5</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G10" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1076,19 +1064,19 @@
         <v>5</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H11" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1107,19 +1095,19 @@
         <v>5</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F12" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H12" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1138,19 +1126,19 @@
         <v>5</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F13" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="8">
+        <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>8</v>
       </c>
-      <c r="G13" s="8">
-        <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>13</v>
-      </c>
       <c r="H13" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1169,19 +1157,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H14" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1341,25 +1329,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="15" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3 E5:E7">
-    <cfRule type="duplicateValues" dxfId="14" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="13" priority="23" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="12" priority="3" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9 E11:E13">
-    <cfRule type="duplicateValues" dxfId="11" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="10" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15 E17:E19">
-    <cfRule type="duplicateValues" dxfId="9" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E15 E17:E19">
+    <cfRule type="duplicateValues" dxfId="18" priority="3" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E14">
+    <cfRule type="duplicateValues" dxfId="2" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>

--- a/ExcelReadCTests/DataTests/ConvertKmat_Test.xlsx
+++ b/ExcelReadCTests/DataTests/ConvertKmat_Test.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\Work\MS Visual Studio\1_MyApplication\ExcelReadC\ExcelReadC (Git)\ExcelReadCTests\DataTests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20730" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>kmat</t>
   </si>
@@ -91,13 +86,37 @@
   </si>
   <si>
     <t>84</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>920111111100109</t>
+  </si>
+  <si>
+    <t>111111100109</t>
+  </si>
+  <si>
+    <t>920121111100109</t>
+  </si>
+  <si>
+    <t>920011131100109</t>
+  </si>
+  <si>
+    <t>920001111100184</t>
+  </si>
+  <si>
+    <t>920000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -185,11 +204,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -219,6 +295,45 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -264,7 +379,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -276,10 +391,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -290,7 +401,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" textRotation="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -303,7 +414,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -319,83 +430,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,25 +452,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:H19"/>
-  <tableColumns count="8">
-    <tableColumn id="11" name="group" dataDxfId="16"/>
-    <tableColumn id="8" name="count_group" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A1:J19">
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="11" name="group" dataDxfId="23"/>
+    <tableColumn id="8" name="count_group" dataDxfId="22">
       <calculatedColumnFormula>LEN(table1[[#This Row],[group]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ceh" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="1" name="count_ceh" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="9" name="ceh" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="1" name="count_ceh" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>LEN(table1[[#This Row],[ceh]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="kmat" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="count_kmat" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="10" name="kmat" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Столбец1" dataDxfId="2" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Столбец2" dataDxfId="0" totalsRowDxfId="3">
+      <calculatedColumnFormula>LEN(table1[[#This Row],[Столбец1]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="count_kmat" dataDxfId="1" totalsRowDxfId="15">
       <calculatedColumnFormula>LEN(table1[[#This Row],[kmat]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="count_ceh_kmat" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="12" name="count_ceh_kmat" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="count_all" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="3" name="count_all" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -480,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,10 +560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -723,27 +769,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -759,17 +805,23 @@
       <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -787,20 +839,27 @@
       <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7">
-        <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>13</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>15</v>
+      </c>
+      <c r="H2" s="7">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>13</v>
+      </c>
+      <c r="I2" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>17</v>
       </c>
-      <c r="H2" s="6">
+      <c r="J2" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -816,22 +875,29 @@
         <v>4</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>15</v>
+      </c>
+      <c r="H3" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>12</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>16</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -849,20 +915,27 @@
       <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>11</v>
       </c>
-      <c r="G4" s="7">
+      <c r="I4" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>15</v>
       </c>
-      <c r="H4" s="6">
+      <c r="J4" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -880,20 +953,27 @@
       <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>15</v>
+      </c>
+      <c r="H5" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>10</v>
       </c>
-      <c r="G5" s="7">
+      <c r="I5" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>14</v>
       </c>
-      <c r="H5" s="6">
+      <c r="J5" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -911,20 +991,27 @@
       <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>9</v>
       </c>
-      <c r="G6" s="7">
-        <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>13</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="I6" s="7">
+        <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
+        <v>13</v>
+      </c>
+      <c r="J6" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -942,20 +1029,25 @@
       <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="13"/>
+      <c r="G7" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>12</v>
       </c>
-      <c r="H7" s="6">
+      <c r="J7" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -973,20 +1065,25 @@
       <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="13"/>
+      <c r="G8" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>7</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>12</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1004,20 +1101,25 @@
       <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="13"/>
+      <c r="G9" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="I9" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1035,20 +1137,25 @@
       <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="13"/>
+      <c r="G10" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="I10" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>10</v>
       </c>
-      <c r="H10" s="6">
-        <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="6">
+        <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1066,20 +1173,25 @@
       <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="13"/>
+      <c r="G11" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>4</v>
       </c>
-      <c r="G11" s="8">
+      <c r="I11" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>9</v>
       </c>
-      <c r="H11" s="6">
+      <c r="J11" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1097,20 +1209,25 @@
       <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8">
-        <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="13"/>
+      <c r="G12" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>8</v>
       </c>
-      <c r="H12" s="6">
+      <c r="J12" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1128,20 +1245,25 @@
       <c r="E13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="8">
-        <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="13"/>
+      <c r="G13" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>8</v>
       </c>
-      <c r="H13" s="6">
+      <c r="J13" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1159,20 +1281,25 @@
       <c r="E14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="13"/>
+      <c r="G14" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="I14" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>8</v>
       </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1190,20 +1317,25 @@
       <c r="E15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="13"/>
+      <c r="G15" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>12</v>
       </c>
-      <c r="G15" s="7">
+      <c r="I15" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>18</v>
       </c>
-      <c r="H15" s="6">
+      <c r="J15" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1221,20 +1353,25 @@
       <c r="E16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="13"/>
+      <c r="G16" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>11</v>
       </c>
-      <c r="G16" s="7">
+      <c r="I16" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>17</v>
       </c>
-      <c r="H16" s="6">
+      <c r="J16" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1252,20 +1389,25 @@
       <c r="E17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="13"/>
+      <c r="G17" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>10</v>
       </c>
-      <c r="G17" s="7">
+      <c r="I17" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>16</v>
       </c>
-      <c r="H17" s="6">
+      <c r="J17" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1283,20 +1425,25 @@
       <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="13"/>
+      <c r="G18" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>9</v>
       </c>
-      <c r="G18" s="7">
+      <c r="I18" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>15</v>
       </c>
-      <c r="H18" s="6">
+      <c r="J18" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1314,37 +1461,42 @@
       <c r="E19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="13"/>
+      <c r="G19" s="16">
+        <f>LEN(table1[[#This Row],[Столбец1]])</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="G19" s="7">
+      <c r="I19" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>14</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="24" priority="8" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E4:G4">
+    <cfRule type="duplicateValues" dxfId="9" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3 E5:E7">
-    <cfRule type="duplicateValues" dxfId="23" priority="9" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E2:G3 E5:G7">
+    <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="22" priority="24" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E1:G1">
+    <cfRule type="duplicateValues" dxfId="7" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="19" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E16:G16">
+    <cfRule type="duplicateValues" dxfId="6" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 E17:E19">
-    <cfRule type="duplicateValues" dxfId="18" priority="3" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E15:G15 E17:G19">
+    <cfRule type="duplicateValues" dxfId="5" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="duplicateValues" dxfId="2" priority="1" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E8:G14">
+    <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
